--- a/RAG/tests/BM25EnsembleRetriever_Phi4_res.xlsx
+++ b/RAG/tests/BM25EnsembleRetriever_Phi4_res.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/konstantin/projects/py/ai-khrabrov/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/konstantin/projects/py/ai-khrabrov/RAG/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CAA8B1-124E-4A4B-B241-486F955F2106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3872A13E-4EC2-294A-9365-F7CCCBCC356F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>user_input</t>
   </si>
@@ -343,6 +343,239 @@
 4. **Единственность:** Условие Липшица используется для доказательства того, что если было два решения, то они должны быть равны на всём интервале существования.
 ### Вывод
 Таким образом, теорема Пикара утверждает, что для задачи Коши функция \( f(t, y) \), которая является непрерывной и удовлетворяет условию Липшица относительно второго аргумента на компактном множестве, гарантирует существование и единственность решения на некотором интервале. Это связано с тем, что условие Липшица контролирует "разброс" функций \( f \), предотвращая дивергенцию потенциальных решений и обеспечивает сходимость итерационных методов.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сформулируйте многомерную формулу Тейлора с остатком в форме Лагранжа. Примените ее к $f(x,y) = e^{{x+y}}$ в точке $(0,0)$.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сформулируйте необходимое условие сходимости числового ряда. Приведите пример ряда, у которого $a_{n} \to 0$, но который расходится.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сформулируйте и докажите теорему Банаха о сжатии в метрическом пространстве. Как и где применяется эта теорема?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Исследуйте ряд $\sum \limits_{n=1}^{\infty} \frac{(-1)^{{n-1}}}{n}$ на абсолютную и условную сходимость.
+</t>
+  </si>
+  <si>
+    <t>['ультииндекс]]). Определения, обозначения, [[Лемма для многомерной формулы Тейлора|лемма о производной композиции гладкой и линейной функций]].\n40. ! Многомерные формулы Тейлора с остатками в форме [[Многомерная формула Тейлора с остатком в форме Лагранжа|Лагранжа]] и [[Многомерная формула Тейлора с остатком в форме Пеано|Пеано]].\n41. [[Теорема Банаха о сжатии]] (само [[Сжатие простр', '$f \\in C^{r}(D),\\ f :D\\to \\mathbb{R}$, $D$ — откр. $\\subset \\mathbb{R}^{n}$, $a \\in D$\n\nТогда при $x\\to a$\n$$\nf(x)=\\sum\\limits_{|k|\\leq r} \\frac{f^{(k)}(a)}{k!}(x-a)^{k}+o(\\lVert x-a \\rVert ^{r})\n$$\n\n(см. [[Многочлен Тейлора высшей степени]], анал. [[Формула Тейлора с остатком в форме Пеано]])\n## Док-во\n\n$h:=x-a$\n\n(по [[Многомерная формула Тейлора с остатком в форме Лагранжа|ост. Лагранжа]])\n$$\n\\begin{gathered}\nf(x)=\\sum\\limits_{|k|\\leq r-1} \\frac{f^{(k)}(a)}{k!}(x-a)^{k} + \\sum\\limits_{|k|=r} \\', '$D\\subset \\mathbb{R}^{n}$ откр., $f \\in C^{r+1}(D),\\ f:D\\to \\mathbb{R},\\ [a,x]\\subset D$ (см. [[r-гладкая функция]])\nТогда существ. $\\Theta \\in (0, 1)$, т.ч. $h:=x-a$ и: \n$$\nf(x)=\\sum\\limits_{|k|\\leq r} \\frac{f^{(k)}(a)}{k!}h^{k} + \\sum\\limits_{|k|=r+1} \\frac{f^{(k)}(a+\\Theta h)}{k!}h^{k}\n$$\n(см. [[Многочлен Тейлора высшей степени]], анал [[Формула Тейлора с остатком в форме Лагранжа]])\n## Док-во\n\n$F(t):=f(a+th)$ по [[Лемма для многомерной формулы Тейлора|Lm]] $F \\in C^{r+1}[0, 1]$\n', ' [[Формула Валлиса#Следствие|Асимптотика наибольшего биномиального коэффициента]].\n9. ! [[Пар03.canvas|Пар03]] [[Формула Тейлора с остатком в интегральной форме]].\n10. [[Теорема Ламберта|Иррациональность числа π]] ([[Остатки для доказательства т Ламберта|начало док-ва]])\n11. [[Пар04.canvas|Пар04]] [[Равномерная непрерывность|Равномерная непрерывность функций: определение и примеры]]. [[Теорема Кант']</t>
+  </si>
+  <si>
+    <t>### Формулировка задачи
+Мы хотим применить многомерную формулу Тейлора с остатком в форме Лагранжа для функции \( f(x, y) = e^{x+y} \), рассматривая её развитие около точки \( (0, 0) \). Это позволит нам выразить значение функции вблизи данной точки через её производные и член с остатком.
+### Определение необходимых понятий
+1. **Многомерная формула Тейлора**: Расширяет концепцию многочленов Тейлора для функций нескольких переменных.
+   Для функции \( f: \mathbb{R}^n \to \mathbb{R} \), дифференцируемой по крайней мере до \( (k+1) \)-го порядка, формула Тейлора с остатком в форме Лагранжа выглядит как:
+   \[
+   f(\mathbf{a} + \mathbf{h}) = \sum_{|\alpha| \leq k} \frac{D^\alpha f(\mathbf{a})}{\alpha!} h^\alpha + R_k(\mathbf{h})
+   \]
+   где:
+   - \( \mathbf{a}, \mathbf{h} \in \mathbb{R}^n \),
+   - \( \alpha = (\alpha_1, \ldots, \alpha_n) \) — мультииндекс,
+   - \( |\alpha| = \alpha_1 + \cdots + \alpha_n \),
+   - \( D^\alpha f(\mathbf{a}) \) обозначает частную производную порядка \( \alpha \),
+   - \( h^\alpha = h_1^{\alpha_1} \cdots h_n^{\alpha_n} \),
+   - \( \alpha! = \alpha_1! \cdots \alpha_n! \).
+2. **Остаток в форме Лагранжа**: 
+   Для \( k=1 \), остаток выражается как:
+   \[
+   R_k(\mathbf{h}) = \sum_{|\alpha| = k+1} \frac{D^\alpha f(\mathbf{a} + t\mathbf{h})}{\alpha!} h^\alpha
+   \]
+   для некоторого \( t \in (0, 1) \).
+### Пошаговое рассуждение
+Для функции \( f(x, y) = e^{x+y} \), дифференцируемой бесконечно много раз, мы начинаем с формулы Тейлора второго порядка (\( k=1 \)):
+\[
+f(x, y) \approx f(0, 0) + \frac{\partial f}{\partial x}(0, 0)x + \frac{\partial f}{\partial y}(0, 0)y + R_1(x, y)
+\]
+#### Вычисление необходимых производных:
+- \( f(0, 0) = e^{0+0} = 1 \).
+- Первые частные производные:
+  - \( \frac{\partial f}{\partial x}(x, y) = e^{x+y} \), поэтому \( \frac{\partial f}{\partial x}(0, 0) = 1 \).
+  - \( \frac{\partial f}{\partial y}(x, y) = e^{x+y} \), поэтому \( \frac{\partial f}{\partial y}(0, 0) = 1 \).
+- Вторые частные производные:
+  - \( \frac{\partial^2 f}{\partial x^2} = e^{x+y} \),
+  - \( \frac{\partial^2 f}{\partial y^2} = e^{x+y} \),
+  - \( \frac{\partial^2 f}{\partial x \partial y} = e^{x+y} \).
+- В точке \( (0, 0) \), все вторые производные равны 1.
+#### Остаток:
+Остаток для \( k=1 \):
+\[
+R_1(x, y) = \frac{1}{2}\left( \frac{\partial^2 f}{\partial x^2}(\xi_x, \xi_y)x^2 + 2\frac{\partial^2 f}{\partial x \partial y}(\xi_x, \xi_y)xy + \frac{\partial^2 f}{\partial y^2}(\xi_x, \xi_y)y^2 \right)
+\]
+где \( (\xi_x, \xi_y) = (tx, ty) \) для некоторого \( t \in (0, 1) \).
+Поскольку все вторые производные равны \( e^{\xi_x + \xi_y} = e^{t(x+y)} \), получаем:
+\[
+R_1(x, y) = \frac{1}{2}e^{t(x+y)}(x^2 + 2xy + y^2)
+\]
+### Вывод
+Многомерная формула Тейлора второго порядка с остатком для функции \( f(x, y) = e^{x+y} \) около точки \( (0, 0) \) выражается как:
+\[
+f(x, y) = 1 + x + y + \frac{1}{2}e^{t(x+y)}(x^2 + 2xy + y^2)
+\]
+где \( t \in (0, 1) \). Это дает нам приближенное значение функции с учётом частных производных и остаточного члена.</t>
+  </si>
+  <si>
+    <t>['тная сходимость]] ([[Теорема об абсолютной сходимости интеграла|th о сходимости]]). Признаки [[Признак Дирихле|Дирихле]] и [[Признак Абеля|Абеля]] ([[Замечание про необходимое условие признаков Дирихле и Абеля|замечание]]\n24. [[Пар05.canvas|Пар05]] [[Сходимость периодических функций|Интеграл от произведения монотонной и периодической функций]]. [[Примеры для признаков Дирихле-Абе', 'ядов#Следствие (пр. Лейбница)|Лейбница]].\n19. [[Признак Абеля для функ рядов|Признак Абеля]]. [[Пример для признака Дирихле функ рядов|Пример ряда, который сходится равномерно и абсолютно, но не равномерно абсолютно]].\n20. [[Признак Дини]].\n21. Теоремы о [[Перестановка пределов в функ последовательностях|перестановке пределов]] и [[Перестановка суммы и предела|перестановке предела и', 'имости сгруппированного ряда|Группировка членов ряда. Свойства.]]\n54. ! [[Пар12.canvas|Пар12]] [[Критерий сходимости для знакопостоянных рядов|Критерий сходимости ряда с неотрицательными членами]]. [[Признак сравнения для рядов|Признак сравнения. Следствия.]]', '$X$ — норм. пр-во.\n$x_{n} \\in X$\n\n$\\sum\\limits_{k=1}^{\\infty}x_{k}$ — ряд.\n\nЧастичная сумма ряда $S_{n}:=\\sum\\limits_{k=1}^{n}x_{k}$\n\nЕсли $S_{n}$ имеет предел, то он наз-ся суммой ряда, а ряд наз-ся сходящимся.\n\n&gt;[!note] Сх-ть числового ряда = предел $S_{n}$ сущ-ет и кон.\n']</t>
+  </si>
+  <si>
+    <t>### Формулировка задачи
+Необходимо определить необходимое условие сходимости числового ряда и привести пример такого ряда, у которого предел членов стремится к нулю, однако сам ряд расходится.
+### Определение необходимых понятий
+**Числовой ряд**: Числовой ряд — это сумма последовательности вида \(\sum_{n=1}^{\infty} a_n\), где \(a_n\) образуют числовую последовательность.
+**Сходимость числового ряда**: Ряд \(\sum_{n=1}^{\infty} a_n\) называется сходящимся, если его частичные суммы \(S_N = \sum_{n=1}^{N} a_n\) стремятся к пределу по мере роста \(N\):
+\[ 
+\lim_{N \to \infty} S_N = L,
+\]
+где \(L\) — конечное число.
+**Необходимое условие сходимости**: Если ряд \(\sum_{n=1}^{\infty} a_n\) сходится, то необходимо выполнено:
+\[ 
+\lim_{n \to \infty} a_n = 0.
+\]
+Это утверждение можно обосновать следующим образом: если предел членов ряда не равен нулю (или его вообще нет), то частичные суммы \(S_N\) будут приближаться к бесконечности по мере увеличения \(N\).
+### Пошаговое рассуждение
+1. **Необходимость предела в нуль для сходимости**:
+   - Предположим, что \(\sum_{n=1}^{\infty} a_n\) сходится к \(L\).
+   - Рассмотрим частичные суммы \(S_N = \sum_{n=1}^{N} a_n\), и предположим \(\lim_{n \to \infty} a_n \neq 0\). Тогда, выбирая достаточно большое \(n\), мы можем найти \(\epsilon &gt; 0\) такой, что для любого \(N\):
+     \[
+     |a_{N+1}| \geq \epsilon.
+     \]
+   - Следовательно:
+     \[
+     S_{N+1} = S_N + a_{N+1},
+     \]
+     и поскольку \(|a_{N+1}| \geq \epsilon\), частичные суммы не могут приближаться к конечному числу, а значит, ряд не может быть сходящимся. Таким образом, получаем:
+     \[
+     \lim_{n \to \infty} a_n = 0.
+     \]
+2. **Пример расходящегося ряда**:
+   - Рассмотрим гармонический ряд:
+     \[
+     \sum_{n=1}^{\infty} \frac{1}{n}.
+     \]
+   - Для данного ряда члены последовательности стремятся к нулю:
+     \[
+     \lim_{n \to \infty} \frac{1}{n} = 0.
+     \]
+   - Однако, хорошо известно (и можно показать с помощью метода порядковых чисел или применением критерия Коши), что гармонический ряд расходится. Это происходит потому, что частичные суммы \(S_N = \sum_{n=1}^{N} \frac{1}{n}\) увеличиваются без ограничения и стремятся к бесконечности.
+### Вывод
+Необходимое условие для сходимости числового ряда \(\sum_{n=1}^{\infty} a_n\) заключается в том, что предел членов последовательности должен стремиться к нулю:
+\[ 
+\lim_{n \to \infty} a_n = 0.
+\]
+Пример ряда, удовлетворяющего этому условию, но при этом расходящегося, — гармонический ряд:
+\[ 
+\sum_{n=1}^{\infty} \frac{1}{n}.
+\] 
+Этот пример демонстрирует, что условие \(\lim_{n \to \infty} a_n = 0\) необходимо, но недостаточно для сходимости ряда.</t>
+  </si>
+  <si>
+    <t>['ел последовательности в метрическом пространстве. [[Предел в метрическом пр-ве|Определение]] и [[Свойства пределов в метр пр-ве|основные свойства]].\n33. [[Пар07.canvas|Пар07]] [[Теорема об арифметических действиях с пределами в нормированном пр-ве|Арифметические свойства пределов последовательности векторов]]. [[Покоординатная сходимость в пространстве столбцов|Покоординатная сходимость]] ([[Теор', 'ультииндекс]]). Определения, обозначения, [[Лемма для многомерной формулы Тейлора|лемма о производной композиции гладкой и линейной функций]].\n40. ! Многомерные формулы Тейлора с остатками в форме [[Многомерная формула Тейлора с остатком в форме Лагранжа|Лагранжа]] и [[Многомерная формула Тейлора с остатком в форме Пеано|Пеано]].\n41. [[Теорема Банаха о сжатии]] (само [[Сжатие простр', 'нная метрика]]. [[Открытые и замкнутые множества в пространстве и в подпространстве|Открытые и замкнутые множества в пространстве и в подпространстве]].\n31. ! [[Пар06.canvas|Пар06]] [[Скалярное произведение]] и [[норма]]. [[Свойства скалярного произведения|Свойства]] и примеры. [[Свойства скалярного произведения|Неравенство Коши–Буняковского]].\n32. ! [[Пар07.canvas|Пар07]] Предел последовательности в метрическом про', ' Банаха о сжатии]] (само [[Сжатие пространства]]). Следствие.\n42. Оценки на нормы [[Оценка на норму обратного оператора|обратного отображения]] и разности значений отображения. [[Теорема об обратимости отображений близких к обратимым]].\n43. [[Теорема об обратной функции]] (существование и непрерывность обратного отображения).\n44. ==Дифференцируемость и непрерывная дифференцируемос']</t>
+  </si>
+  <si>
+    <t>### Формулировка задачи
+Теорема Банаха о сжатии утверждает, что любая непрерывная функция, которая является "сжимающей" в метрическом пространстве (то есть отображает точки ближе друг к другу), имеет единственную фиксированную точку. Теорема широко используется в аналитической топологии, динамических системах и экономике.
+### Определения необходимых понятий
+1. **Метрическое пространство**: Пара \((X, d)\), где \(X\) — множество точек, а \(d: X \times X \to \mathbb{R}\) — функция расстояния (метрика), удовлетворяющая следующим свойствам:
+   - Неликвидность: \(d(x, y) \geq 0\) и \(d(x, y) = 0\) тогда и только тогда, когда \(x = y\).
+   - Симметричность: \(d(x, y) = d(y, x)\).
+   - Треугольное неравенство: \(d(x, z) \leq d(x, y) + d(y, z)\).
+2. **Компактное множество**: Подмножество \(K\) в метрическом пространстве \((X, d)\) называется компактным, если из любого покрывающего его открытого частичного семейства можно выделить конечное подсемейство такое, что \(K\) является их объединением.
+3. **Сжимающее отображение**: Отображение \(f: X \to X\) в метрическом пространстве называется сжимающим, если существует константа \(0 \leq c &lt; 1\), такая что для любых точек \(x, y \in X\):
+   \[
+   d(f(x), f(y)) \leq c \cdot d(x, y).
+   \]
+4. **Фиксированная точка**: Точка \(x^* \in X\) является фиксированной для отображения \(f: X \to X\), если \(f(x^*) = x^*\).
+### Пошаговое рассуждение
+#### Доказательство теоремы Банаха о сжатии
+Пусть дано компактное метрическое пространство \((X, d)\) и непрерывное отображение \(f: X \to X\), являющееся сжимающим. Необходимо доказать, что у функции \(f\) есть единственная фиксированная точка.
+1. **Избрание начальной точки и построение последовательности**: Выберем произвольную точку \(x_0 \in X\). Определим последовательность \(\{x_n\}\) так, что:
+   \[
+   x_{n+1} = f(x_n), \quad n = 0, 1, 2, \ldots
+   \]
+2. **Доказательство того, что последовательность ковариантна**: Для любых \(m &gt; n\), используя свойства сжимающей функции:
+   \[
+   d(x_{n+1}, x_n) = d(f(x_n), f(x_{n-1})) \leq c \cdot d(x_n, x_{n-1}),
+   \]
+   итеративно применяя неравенство, получаем:
+   \[
+   d(x_{n+k}, x_n) \leq c^k \cdot d(x_n, x_{n-k}).
+   \]
+3. **Доказательство того, что последовательность является фундаментальной**: Для любых \(m &gt; n\):
+   \[
+   d(x_m, x_n) \leq d(x_m, x_{m-1}) + d(x_{m-1}, x_{m-2}) + \cdots + d(x_{n+1}, x_n).
+   \]
+   Применяя сжатие:
+   \[
+   d(x_m, x_n) \leq (c^{m-1} + c^{m-2} + \ldots + c^n) \cdot d(x_1, x_0).
+   \]
+4. **Сходимость последовательности**: Поскольку \(0 \leq c &lt; 1\), ряд геометрический:
+   \[
+   d(x_m, x_n) \leq c^n \cdot \frac{d(x_1, x_0)}{1-c}.
+   \]
+   По мере увеличения \(n\), правая часть стремится к нулю. Следовательно, последовательность \(\{x_n\}\) является фундаментальной.
+5. **Существование предела**: Поскольку пространство \(X\) компактно и \(\{x_n\}\) фундаментальная, она сходится к некоторой точке \(x^* \in X\).
+6. **Доказательство того, что \(x^*\) — фиксированная точка**: Используя непрерывность отображения \(f\):
+   \[
+   f(x^*) = f\left(\lim_{n \to \infty} x_n\right) = \lim_{n \to \infty} f(x_n) = \lim_{n \to \infty} x_{n+1} = x^*.
+   \]
+7. **Доказательство того, что фиксированная точка уникальна**: Предположим, существует еще одна фиксированная точка \(y^*\), для которой \(f(y^*) = y^*\). Тогда:
+   \[
+   d(x^*, y^*) = d(f(x^*), f(y^*)) \leq c \cdot d(x^*, y^*).
+   \]
+   Поскольку \(0 \leq c &lt; 1\), единственное решение — это \(d(x^*, y^*) = 0\), то есть \(x^* = y^*\).
+### Вывод
+Таким образом, теорема Банаха о сжатии доказана: любое непрерывное сжимающее отображение на компактном метрическом пространстве имеет единственную фиксированную точку.
+### Применения теоремы
+- **Аналитическая топология**: Используется для доказательства существования решений некоторых интегральных уравнений.
+- **Динамические системы**: Например, в исследовании устойчивости циклов или равновесных состояний.
+- **Экономика**: Применяется для доказательства существования и единственности равновесия в моделях рынка.
+Теорема Банаха о сжатии является одной из фундаментальных теорем, которая находит широкое применение в различных областях математики и прикладных дисциплин.</t>
+  </si>
+  <si>
+    <t>["$u_{n} \\in C^{1}[a,b],\\ c \\in [a,b]$, ряд $\\sum\\limits_{n=1}^{\\infty}u_{n}(c)$ — [[Сходящийся ряд|сх-ся]], ряд $\\sum\\limits_{n=1}^{\\infty}u_{n}'$ сх-ся равном. на $[a,b]$\n\nТогда $\\sum\\limits_{n=1}^{\\infty}u_{n}$ сх-ся равном. на $[a,b]$ к нек. непр.-дифф. ф-и и производная суммы ряда это сумма ряда производных.\n\n&gt;[!note]- Равном. сх-ти ряда $\\sum\\limits_{n=1}^{\\infty}u_{n}$ недост.\n&gt; $$\n&gt; \\sum\\limits_{n=1}^{\\infty} \\frac{\\sin nx}{n^{2}},\\ \\left\\lvert  \\frac{\\sin nx}{n^{2}}  \\right\\rvert \\leq \\frac{1}{n^{2}}\\implies\\text{равном. с", '$R \\in (0, +\\infty)$ — [[радиус сходимости]] нек. ряда. $\\sum\\limits_{n=0}^{\\infty}a_{n}z^{n}$ и ряд сх-ся при $z=R$.\n\nТогда ряд сх-ся равном. на $[0, R]$. В частности $\\lim\\limits_{ x \\to R- }\\sum\\limits_{n=0}^{\\infty}a_{n}x^{n}=\\sum\\limits_{n=0}^{\\infty}a_{n}R^{n}$.\n## Док-во\n\nПрименить [[Признак Абеля для функ рядов]]\n1. $\\sum\\limits_{n=0}^{\\infty}a_{n}R^{n}$ — сх-ся (равном.)\n2. $\\left( \\frac{x}{R} \\right)^{n}$ монот.\n3. $\\left( \\frac{x}{R} \\right)^{n}\\leq 1$ — [[Равномерно ограниченная функ последовательность|ра', '$a_{n}\\geq 0$\n1. если $\\sqrt[n]{a_{n}}\\leq q&lt;1$ НСНМ, то ряд $\\sum\\limits_{n=1}^{+\\infty}a_{n}$ сх-ся\n2. $q_{*}:=\\overline{\\lim}\\sqrt[n]{a_{n}}$. Если $q_{*}&lt;1$, то ряд сх-ся, если $q_{*}&gt;1$, то ряд расх-ся (более того, $a_{n}\\not \\to 0$).\n\n&gt;[!note]- Если $q_{*}=1$, то ряд может сх-ся и расх-ся\n&gt; 1. $\\sum\\limits_{n=1}^{\\infty} \\frac{1}{n}$ — расх-ся, но $\\sqrt[n]{a_{n}}=\\frac{1}{\\sqrt[n]{a_{n}}}\\to 1$\n&gt; 2. $\\sum\\limits_{n=1}^{\\infty} \\frac{1}{n(n+1)}$ — сх-ся, но $\\sqrt[n]{a_{n}}=\\frac{1}{\\sqrt[n]{n}\\sqrt[n]{n+1}}\\to 1$\n\n(см. [[Зна', '� т.к. ряд сх-ся, то это и есть сумма ряда.']</t>
+  </si>
+  <si>
+    <t>Чтобы изучить ряд \(\sum \limits_{n=1}^{\infty} \frac{(-1)^{n-1}}{n}\) на абсолютную и условную сходимость, нам нужно применить определения и тесты для каждого типа сходимости.
+### Формулировка задачи
+Изучить ряд:
+\[
+\sum \limits_{n=1}^{\infty} \frac{(-1)^{n-1}}{n}
+\]
+на абсолютную и условную сходимость.
+### Определения необходимых понятий
+**Абсолютная сходимость:** Ряд \(\sum a_n\) абсолютно сходится, если ряд \(\sum |a_n|\) сходится.
+**Условная сходимость:** Ряд \(\sum a_n\) условно сходится, если он сходится, но не абсолютно. То есть, \(\sum a_n\) сходится, в то время как \(\sum |a_n|\) расходится.
+**Альтернирующий ряд:** Ряд, элементы которого чередуют знаки (например, \((-1)^n a_n\)), где \(a_n \geq 0\).
+**Тест Лейбница для альтернирующих рядов:** Если \(a_n\) — неотрицательная невозрастающая последовательность, приходящая к нулю (\(a_{n+1} \leq a_n\) и \(\lim_{n\to\infty} a_n = 0\)), то альтернирующий ряд \(\sum (-1)^{n-1} a_n\) сходится.
+### Пошаговое рассуждение
+1. **Изучаем абсолютную сходимость:**
+   Рассмотрим ряд:
+   \[
+   \sum \limits_{n=1}^{\infty} \left| \frac{(-1)^{n-1}}{n} \right| = \sum \limits_{n=1}^{\infty} \frac{1}{n}
+   \]
+   Это гармонический ряд. Известно, что:
+   \[
+   \sum \limits_{n=1}^{\infty} \frac{1}{n} = \text{расходится}.
+   \]
+   Следовательно, исследуемый ряд не абсолютно сходится.
+2. **Изучаем условную сходимость:**
+   Наш ряд:
+   \[
+   \sum \limits_{n=1}^{\infty} \frac{(-1)^{n-1}}{n}
+   \]
+   является альтернирующим рядом, где \(a_n = \frac{1}{n}\). Проверяем условия теста Лейбница:
+   - \(a_n = \frac{1}{n} \geq 0\)
+   - \(a_{n+1} = \frac{1}{n+1} \leq a_n = \frac{1}{n}\), то есть последовательность невозрастает.
+   - \(\lim_{n \to \infty} a_n = \lim_{n \to \infty} \frac{1}{n} = 0\).
+   Условия теста Лейбница выполнены, следовательно, ряд \(\sum \limits_{n=1}^{\infty} \frac{(-1)^{n-1}}{n}\) сходится.
+### Вывод
+Ряд \(\sum \limits_{n=1}^{\infty} \frac{(-1)^{n-1}}{n}\):
+- Не является абсолютно сходящимся, так как \(\sum \limits_{n=1}^{\infty} \left| \frac{(-1)^{n-1}}{n} \right|\) расходится.
+- Является условно сходящимся, так как удовлетворяет критериям теста Лейбница для альтернирующих рядов. 
+Таким образом, исследуемый ряд \(\sum \limits_{n=1}^{\infty} \frac{(-1)^{n-1}}{n}\) условно сходится. Этот ряд также известен как альтернирующий гармонический ряд и сходится к \(\ln(2)\).</t>
   </si>
 </sst>
 </file>
@@ -706,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="373" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -872,7 +1105,97 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9">
+        <v>0.85696237435506617</v>
+      </c>
+      <c r="F9">
+        <v>0.75</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>0.8261705256686267</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>0.8806778687191511</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>